--- a/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E360BD-F19F-4B38-8FD1-264C0DB46A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37531712-FB7E-4D69-9781-A08320BD7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameBulletin" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37531712-FB7E-4D69-9781-A08320BD7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9B6FB-9889-4D92-8984-6ED21D03220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameBulletin" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,14 +408,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -497,7 +489,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,7 +805,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1130,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9B6FB-9889-4D92-8984-6ED21D03220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="GameBulletin" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +76,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
     <t>测试公告1</t>
   </si>
   <si>
@@ -93,7 +93,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -115,7 +113,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,7 +123,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +133,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +143,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +153,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +174,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +184,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +194,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -216,7 +206,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,7 +216,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +226,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,7 +236,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,7 +246,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,7 +256,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,7 +266,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +317,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +327,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,7 +337,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,7 +347,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,8 +357,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +377,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -400,32 +384,159 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,24 +557,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39933469649342324"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39945677053132728"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.399334696493423"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399456770531327"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -486,29 +789,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,18 +1080,62 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,20 +1393,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="96.875" customWidth="1"/>
@@ -819,7 +1416,7 @@
     <col min="8" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -877,7 +1474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -906,232 +1503,247 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>27</v>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9">
-        <v>10013</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>10013</v>
-      </c>
-      <c r="H10" s="9" t="s">
+        <v>999012</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>999012</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="99.75" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>27</v>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/活动公告表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -82,91 +82,269 @@
     <t>IN:[0;1]</t>
   </si>
   <si>
+    <t>「谜题：X」测试开启</t>
+  </si>
+  <si>
+    <t>banner/gamebulletin/4</t>
+  </si>
+  <si>
+    <t>2022-10-21T18:00:00</t>
+  </si>
+  <si>
+    <t>2023-11-11T12:00:00</t>
+  </si>
+  <si>
+    <t>测试开服公告</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/1","title": "测试开服公告","content": "大家好！\n欢迎大家参加本次「谜题：X」测试！\n在这里，作为拥有“特殊能力”的新人队长，你将通过缜密的推理与科学手段，破解在都市里蛰伏的各种黑暗怪谈！\n从现在起，我们将一同并肩作战！\n【测试时间】&lt;color=#9D00FF&gt;2022年11月3日10:00—2022年11月11日12:00&lt;/color&gt;\n【测试类型】限号不计费删档测试\n【测试说明】\n1、在测试期间，玩家需要对游戏内容进行严格保密，不得以任何形式（包括但不限于截图，直播，视频等）对外泄露，有违反，官方将严肃处理。\n2、本次测试仅为小规模技术性测试，目前仍为较初期版本，后续将会不断进行优化与完善，测试内容不代表正式上线时的品质，请以最终上线版本内容为准。\n如在测试过程中遇到问题或有相关内容建议，欢迎加入&lt;color=#9D00FF&gt;官方QQ群【641678572】&lt;/color&gt;进行反馈。\n最后，感谢大家的支持与喜爱，祝游戏愉快！","sender":"异质物研究院","date":"2022年11月3日"}</t>
+  </si>
+  <si>
+    <t>2022-11-10T12:00:00</t>
+  </si>
+  <si>
+    <t>福利活动公告</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/2","title": "测试开服公告","content": "大家好！
+非常感谢各位来参与本次「谜题：X」测试！为了能够给大家带来更愉快的体验，我们特为每一位新成员准备了如下福利活动，还望可以帮助大家更好适应在这里的生活。
+&lt;color=#2335E0&gt;【八日签到活动】&lt;/color&gt;
+在本次「谜题：X」测试期间，登录游戏进行签到即可领取签到奖励，具体奖励内容如下：
+&lt;color=#9D00FF&gt;第一日：异晶石*200&lt;/color&gt;
+&lt;color=#9D00FF&gt;第二日：稳定剂*10&lt;/color&gt;
+&lt;color=#9D00FF&gt;第三日：三星异质物「莉尔塔Ⅲ型」*1&lt;/color&gt;
+&lt;color=#9D00FF&gt;第四日：便当盒*5&lt;/color&gt;
+&lt;color=#9D00FF&gt;第五日：异晶石*1000&lt;/color&gt;
+&lt;color=#9D00FF&gt;第六日：重构之粒*100&lt;/color&gt;
+&lt;color=#9D00FF&gt;第七日：异晶石*2000&lt;/color&gt;
+&lt;color=#9D00FF&gt;第八日：稳定剂*30&lt;/color&gt;
+&lt;color=#2335E0&gt;【新手卡池福利活动】&lt;/color&gt;
+本次测试期间，我们特为大家准备了除常规卡池外的特殊「新手卡池」。各位玩家可通过「新手卡池」来获得异质物、组建出战阵容，帮助大家在前期通关基础内容。
+「新手卡池」说明：
+1、新手卡池可享十连折扣优惠，每次十连只需消耗1200异晶石；
+2、保底机制：在新手卡池中，&lt;color=#9D00FF&gt;前30抽必得3星异质物&lt;/color&gt;；
+3、新手卡池将在抽取三次十连后关闭，无法再次进入。
+&lt;color=#2335E0&gt;【任务及关卡活动】&lt;/color&gt;
+在此次测试活动中，大家将会跟随成员们一同前往诸多地点进行调查及清理工作，同时还将会接触到各种都市怪谈。为了帮助大家顺利完成任务，此次测试开放的活动玩法中，我们同样准备了大量奖励，包括但不限于以下内容：
+1、完成25个支线任务，累计可获得异晶石*8000、稳定剂*27；
+2、完成「泉舜公寓」目标挑战后可累计获得异晶石*2700、稳定剂*19；
+3、完成「今夕养老院」内容后共计可获得异晶石*4300、稳定剂*16；
+4、完成「珑克酒店」内容后共计可获得异晶石*4200、稳定剂*15；
+5、完成「天目剧院」内容后共计可获得异晶石*1400、稳定剂*21；
+6、完成「克雷研究所」关卡内容后，共计可获得异晶石*1400、稳定剂*21。
+除此之外，主线及其他活动中还有大量异晶石等奖励可前往获取，更多精彩内容将会随着调查的不断深入而一一呈现。
+&lt;color=#2335E0&gt;【有奖问卷活动】&lt;/color&gt;
+为了能够在日后为大家带来更好的游戏体验，在本次测试期间内，我们准备了有奖问卷以供了解大家的真实体验感受。在游戏内，通过参加问卷调研，还可获得丰厚游戏奖励。
+本次测试问卷共五份，玩家达到一定等级或通过指定章节内容后，将会在游戏主界面左侧出现【问卷】提示图标，填写并成功提交问卷可分别获得奖励：&lt;color=#9D00FF&gt;异晶石*300、稳定剂*5、稳定剂*5、稳定剂*5、稳定剂*5&lt;/color&gt;（奖励内容将通过游戏内邮件进行发放请及时领取）。
+我们将非常认真地对待所提及的每条意见与建议，并不断优化游戏内容以提升后续的游戏体验，真诚期待着大家的反馈！
+在此，衷心感谢大家的支持与喜爱，祝大家游戏愉快。","sender":"异质物研究院","date":"2022年11月3日"}</t>
+  </si>
+  <si>
+    <t>2022-11-11T12:00:00</t>
+  </si>
+  <si>
+    <t>防沉迷公告</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/3","title": "防沉迷公告","content": "为响应国家最新的相关政策，引导未成年用户健康游戏，关爱未成年人的健康。根据国家新闻出版署发布的《关于进一步严格管理切实防止未成年人沉迷网络游戏的通知》，对于实名认证信息为未成年人（未满18周岁）的玩家，设置游戏时间限制与游戏消费限制系统，具体规则如下：
+未满18岁周岁的用户，仅能在周五、周六、周日及法定节假日的每日20时至21时期间登录游戏，且累计在线时长不能超过1小时，其余时间将无法继续游戏。
+具体规则请见国家新闻出版署发布的《关于进一步严格管理切实防止未成年人沉迷网络游戏的通知》。
+感谢各位玩家的支持与理解，让我们共同守护未成年人的健康成长！","sender":"异质物研究院","date":"2022年11月3日"}</t>
+  </si>
+  <si>
+    <t>测试结束公告</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/1","title": "测试结束公告","content": "大家好！
+非常感谢大家对本次「谜题：X」测试的大力支持，测试将于&lt;color=#9D00FF&gt;2022年11月11日12:00正式结束&lt;/color&gt;，届时游戏服务器将关闭，本次测试期间所有游戏数据均会清除，不予保留，还望理解。
+在本次测试中我们收到并认真记录了每一条意见与建议反馈，在后续的时间中，我们将会继续对游戏进行优化和完善，诚心期待未来再次与大家见面的时候，能让大家拥有一段更为愉快的时光。
+最后，再次感谢支持与喜爱，期待下一次的相遇！","sender":"异质物研究院","date":"2022年11月3日"}</t>
+  </si>
+  <si>
+    <t>测试公告3</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/test_banner2","title": "测试公告4","content": "这是一个天大的好消息呀！"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:00</t>
+    </r>
+  </si>
+  <si>
+    <t>2023-06-06T00:00:00</t>
+  </si>
+  <si>
+    <t>测试公告4</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/test_banner2","title": "测试公告6","content": "各位超感者：\n非常感谢大家参与本次不计费删档内测，为了能够给大家带来更愉快的体验，我们特为每一位加入STS的新成员准备了如下福利活动，还望可以帮助大家更好适应在这里的生活。\n\n&lt;size=36&gt;[三日登录活动]&lt;/size&gt;\n测试期间，每日登录游戏可通过游戏内邮件获得相应的签到奖励，具体奖励内容如下：\n&lt;color=#2335E0&gt;第一日：异晶石*300&lt;/color&gt;\n&lt;color=#2335E0&gt;第二日：异质物「莉尔塔Ⅲ型」*1&lt;/color&gt;\n&lt;color=#2335E0&gt;第三日：异核*100&lt;/color&gt;\n以上奖励内容将会在每日0点通过系统邮件的方式自动发送，各位超感者请注意查收并及时领取邮件内容。\n\n&lt;size=36&gt;[新手卡池福利活动]&lt;/size&gt;\n本次测试期间，我们特为大家准备了除常规卡池外的特殊「新手卡池」。各位超感者可通过「新手卡池」来获得异质物、组建出战阵容，帮助大家在前期通关基础内容。\n「新手卡池」说明：\n1.新手卡池可享十连六折优惠，每次十连只需消耗1800异晶石；\n2.保底机制：在新手卡池中，&lt;color=#2335E0&gt;前3次十连必得2个3星异质物&lt;/color&gt;；\n3.新手卡池将在抽取三次十连后关闭，无法再次进入。\n\n&lt;size=36&gt;[任务及关卡活动]&lt;/size&gt;\n在加入STS后，超感者将会跟随成员们一同前往诸多地点进行调查及清理工作，同时还将会接触到各种都市怪谈。为了帮助超感者们顺利完成任务，此次测试开放的活动玩法中，我们同样准备了大量奖励，包括但不限于以下内容：\n1.完成8个支线任务，累计可获得异核*26；\n2.完成「泉舜公寓」每间首通后可累计获得异晶石*1050、异核*3。此外，完成全部特殊挑战可累计获得异晶石*2400、异核*18；\n3.完成「天目剧院」全关卡首通后，共计可获得异核*21；\n4.完成「克雷研究所」全关卡首通后，共计可获得异核*21。\n除此之外，主线剧情内还有大量异晶石等奖励可前往获取，更多精彩内容将会随着调查的不断深入而一一呈现给大家。\n\n&lt;size=36&gt;[有奖问卷活动]&lt;/size&gt;\n为了能够在日后为大家带来更好的游戏体验，在本次测试期间内，我们准备了有奖问卷以供了解大家的真实体验感受。在游戏内，通过参加问卷调研，还可获得丰厚游戏奖励。\n本次测试问卷共三份，玩家达到一定等级或通过指定章节内容后，将会在游戏主界面左侧出现【问卷】提示图标，填写并成功提交问卷即可依次获得奖励：&lt;color=#2335E0&gt;异晶石*600、异核*10、异核*10&lt;/color&gt;（奖励内容将会通过游戏内邮件进行发放请及时领取）。\n我们将非常认真地对待所提及的每条意见与建议，并不断优化游戏内容以提升后续的游戏体验，真诚地期待着大家的反馈！\n\n在本次测试中，还有许多丰富有趣的内容等待大家亲自体验，相信各位超感者会在STS收获一段特殊的回忆。\n最后，衷心感谢大家的支持与喜爱，祝大家游戏愉快！\n\n&lt;color=#2335E0&gt;※此次测试仅为小规模技术性测试，目前仍为较初期版本，后续将会不断进行优化与完善，测试内容不代表正式上线时的品质，请以最终上线版本内容为准。&lt;/color&gt;","sender":"《特别事态派遣科》运营团队","date":"2022年12月12日"}</t>
+  </si>
+  <si>
+    <t>2021-06-06T00:00:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:00:00</t>
+    </r>
+  </si>
+  <si>
+    <t>测试公告5</t>
+  </si>
+  <si>
+    <t>{"banner": "banner/gamebulletin/test_banner","title": "测试公告7","content": "各位超感者：\n非常感谢大家对本次封闭测试的大力支持，此次测试将于&lt;color=#2335E0&gt;7月29日18:00正式结束&lt;/color&gt;，届时游戏服务器将关闭，测试期间所有游戏数据均会清除，还望理解。\n在本次测试中我们收到并认真记录了每一条意见与建议反馈，我们将在后续的时间中，继续对游戏进行优化和改进，诚心期待未来再次与大家见面的时候，能让各位超感者在STS拥有一段更为愉快的时光。\n最后，再次感谢大家的喜爱，期待下一次的相遇！","sender":"《代号：S.T.S》运营团队","date":"2022年12月12日"}</t>
+  </si>
+  <si>
+    <t>活动公告测试1</t>
+  </si>
+  <si>
+    <t>banner/gamebulletin/test_huodong1</t>
+  </si>
+  <si>
+    <t>活动公告测试2</t>
+  </si>
+  <si>
+    <t>banner/gamebulletin/test_huodong2</t>
+  </si>
+  <si>
     <t>测试公告1</t>
   </si>
   <si>
-    <t>{"banner": "banner/gamebulletin/test_banner","title": "测试活动公告","content":"欢迎各位超感者加入STS！\n在这里，作为拥有“特殊能力”的新人队长，你将通过缜密的推理与科学手段，破解在都市里蛰伏的各种黑暗怪谈！\n从现在起，我们将一同并肩作战！\n【测试时间】&lt;color=#2335E0&gt;2022年7月26日10:00—2022年7月29日18:00&lt;/color&gt;\n【测试类型】不计费删档测试\n【测试说明】\n1.在测试期间，玩家需要对游戏内容进行严格保密，不得以任何形式（包括但不限于截图，直播，视频等）对外泄露，如有违反，官方将严肃处理；\n&lt;color=#2335E0&gt;2.本次测试仅为小规模技术性测试，目前仍为较初期版本，后续将会不断进行优化与完善，测试内容不代表正式上线时的品质，请以最终上线版本内容为准。&lt;/color&gt;\n最后，感谢大家的支持与喜爱，祝游戏愉快！\n&lt;color=#2335E0&gt;官方QQ交流群：745225592&lt;/color&gt;","sender":"《代号：S.T.S》运营团队","date":"2022年12月12日"}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00:00:00</t>
-    </r>
-  </si>
-  <si>
-    <t>2023-06-06T00:00:00</t>
-  </si>
-  <si>
-    <t>测试公告2</t>
-  </si>
-  <si>
-    <t>{"banner": "banner/gamebulletin/test_banner2","title": "测试公告3","content": "测试公告3，试一试呀"}</t>
+    <t>{"banner": "banner/gamebulletin/test_banner","title": "4月6日16:00闪断更新公告","content": "感谢您对《mobi》的关注与支持。《mobi》计划于&lt;color=	#DC143C&gt;2022年4月6日16:00~16:10&lt;/color&gt;期间进行服务器闪断更新。届时将造成玩家强制掉线，无法登陆等问题。为确保您的游戏内账号数据正常，请在本次闪断更新时提前结束游戏。本次更新给各位玩家带来的不便，敬请谅解！\n闪断更新时间：\n2022年4月6日16:00~16:10期间\n\n更新内容：\n①杜衡非常牙败的资源预载\n②凯瑟琳非常奇怪的针头资源预载\n闪断补偿：钻石*1000\n*本次维护不排除延迟开启的可能，如若延迟请关注官方发布的具体开服时间。\n                                                                                                                             《mobi》运营组\n                                                                                                                               2022年4月6日\n"}</t>
   </si>
   <si>
     <r>
@@ -199,114 +377,6 @@
       </rPr>
       <t>6-06T00:00:00</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00:00:00</t>
-    </r>
-  </si>
-  <si>
-    <t>测试公告3</t>
-  </si>
-  <si>
-    <t>{"banner": "banner/gamebulletin/test_banner2","title": "测试公告4","content": "这是一个天大的好消息呀！"}</t>
-  </si>
-  <si>
-    <t>测试公告4</t>
-  </si>
-  <si>
-    <t>{"banner": "banner/gamebulletin/test_banner2","title": "测试公告6","content": "各位超感者：\n非常感谢大家参与本次不计费删档内测，为了能够给大家带来更愉快的体验，我们特为每一位加入STS的新成员准备了如下福利活动，还望可以帮助大家更好适应在这里的生活。\n\n&lt;size=36&gt;[三日登录活动]&lt;/size&gt;\n测试期间，每日登录游戏可通过游戏内邮件获得相应的签到奖励，具体奖励内容如下：\n&lt;color=#2335E0&gt;第一日：异晶石*300&lt;/color&gt;\n&lt;color=#2335E0&gt;第二日：异质物「莉尔塔Ⅲ型」*1&lt;/color&gt;\n&lt;color=#2335E0&gt;第三日：异核*100&lt;/color&gt;\n以上奖励内容将会在每日0点通过系统邮件的方式自动发送，各位超感者请注意查收并及时领取邮件内容。\n\n&lt;size=36&gt;[新手卡池福利活动]&lt;/size&gt;\n本次测试期间，我们特为大家准备了除常规卡池外的特殊「新手卡池」。各位超感者可通过「新手卡池」来获得异质物、组建出战阵容，帮助大家在前期通关基础内容。\n「新手卡池」说明：\n1.新手卡池可享十连六折优惠，每次十连只需消耗1800异晶石；\n2.保底机制：在新手卡池中，&lt;color=#2335E0&gt;前3次十连必得2个3星异质物&lt;/color&gt;；\n3.新手卡池将在抽取三次十连后关闭，无法再次进入。\n\n&lt;size=36&gt;[任务及关卡活动]&lt;/size&gt;\n在加入STS后，超感者将会跟随成员们一同前往诸多地点进行调查及清理工作，同时还将会接触到各种都市怪谈。为了帮助超感者们顺利完成任务，此次测试开放的活动玩法中，我们同样准备了大量奖励，包括但不限于以下内容：\n1.完成8个支线任务，累计可获得异核*26；\n2.完成「泉舜公寓」每间首通后可累计获得异晶石*1050、异核*3。此外，完成全部特殊挑战可累计获得异晶石*2400、异核*18；\n3.完成「天目剧院」全关卡首通后，共计可获得异核*21；\n4.完成「克雷研究所」全关卡首通后，共计可获得异核*21。\n除此之外，主线剧情内还有大量异晶石等奖励可前往获取，更多精彩内容将会随着调查的不断深入而一一呈现给大家。\n\n&lt;size=36&gt;[有奖问卷活动]&lt;/size&gt;\n为了能够在日后为大家带来更好的游戏体验，在本次测试期间内，我们准备了有奖问卷以供了解大家的真实体验感受。在游戏内，通过参加问卷调研，还可获得丰厚游戏奖励。\n本次测试问卷共三份，玩家达到一定等级或通过指定章节内容后，将会在游戏主界面左侧出现【问卷】提示图标，填写并成功提交问卷即可依次获得奖励：&lt;color=#2335E0&gt;异晶石*600、异核*10、异核*10&lt;/color&gt;（奖励内容将会通过游戏内邮件进行发放请及时领取）。\n我们将非常认真地对待所提及的每条意见与建议，并不断优化游戏内容以提升后续的游戏体验，真诚地期待着大家的反馈！\n\n在本次测试中，还有许多丰富有趣的内容等待大家亲自体验，相信各位超感者会在STS收获一段特殊的回忆。\n最后，衷心感谢大家的支持与喜爱，祝大家游戏愉快！\n\n&lt;color=#2335E0&gt;※此次测试仅为小规模技术性测试，目前仍为较初期版本，后续将会不断进行优化与完善，测试内容不代表正式上线时的品质，请以最终上线版本内容为准。&lt;/color&gt;","sender":"《特别事态派遣科》运营团队","date":"2022年12月12日"}</t>
-  </si>
-  <si>
-    <t>2021-06-06T00:00:00</t>
-  </si>
-  <si>
-    <t>测试公告5</t>
-  </si>
-  <si>
-    <t>{"banner": "banner/gamebulletin/test_banner","title": "测试公告7","content": "各位超感者：\n非常感谢大家对本次封闭测试的大力支持，此次测试将于&lt;color=#2335E0&gt;7月29日18:00正式结束&lt;/color&gt;，届时游戏服务器将关闭，测试期间所有游戏数据均会清除，还望理解。\n在本次测试中我们收到并认真记录了每一条意见与建议反馈，我们将在后续的时间中，继续对游戏进行优化和改进，诚心期待未来再次与大家见面的时候，能让各位超感者在STS拥有一段更为愉快的时光。\n最后，再次感谢大家的喜爱，期待下一次的相遇！","sender":"《代号：S.T.S》运营团队","date":"2022年12月12日"}</t>
-  </si>
-  <si>
-    <t>活动公告测试1</t>
-  </si>
-  <si>
-    <t>banner/gamebulletin/test_huodong1</t>
-  </si>
-  <si>
-    <t>活动公告测试2</t>
-  </si>
-  <si>
-    <t>banner/gamebulletin/test_huodong2</t>
-  </si>
-  <si>
-    <t>{"banner": "banner/gamebulletin/test_banner","title": "4月6日16:00闪断更新公告","content": "感谢您对《mobi》的关注与支持。《mobi》计划于&lt;color=	#DC143C&gt;2022年4月6日16:00~16:10&lt;/color&gt;期间进行服务器闪断更新。届时将造成玩家强制掉线，无法登陆等问题。为确保您的游戏内账号数据正常，请在本次闪断更新时提前结束游戏。本次更新给各位玩家带来的不便，敬请谅解！\n闪断更新时间：\n2022年4月6日16:00~16:10期间\n\n更新内容：\n①杜衡非常牙败的资源预载\n②凯瑟琳非常奇怪的针头资源预载\n闪断补偿：钻石*1000\n*本次维护不排除延迟开启的可能，如若延迟请关注官方发布的具体开服时间。\n                                                                                                                             《mobi》运营组\n                                                                                                                               2022年4月6日\n"}</t>
   </si>
   <si>
     <t>{"banner": "Image/GameBulletin/test_banner","title": "4月6日16:00闪断更新公告","content": "感谢您对《mobi》的关注与支持。《mobi》计划于&lt;color= #DC143C&gt;2022年4月6日16:00~16:10&lt;/color&gt;期间进行服务器闪断更新。届时将造成玩家强制掉线，无法登陆等问题。为确保您的游戏内账号数据正常，请在本次闪断更新时提前结束游戏。本次更新给各位玩家带来的不便，敬请谅解！\n闪断更新时间：\n2022年4月6日16:00~16:10期间\n\n更新内容：\n①杜衡非常牙败的资源预载\n②凯瑟琳非常奇怪的针头资源预载\n闪断补偿：钻石*1000\n*本次维护不排除延迟开启的可能，如若延迟请关注官方发布的具体开服时间。\n   Mobi运营组\n   2022年4月6日\n"}</t>
@@ -536,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,32 +1077,32 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,6 +1131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1399,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1518,28 +1588,26 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="28.5" spans="1:9">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1550,195 +1618,347 @@
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" ht="409.5" spans="1:9">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" ht="171" spans="1:9">
       <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5" spans="1:9">
       <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E20" s="12">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10">
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
         <v>999012</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9">
+      <c r="H20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E21" s="12">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>999012</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="99.75" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G11">
-        <v>999012</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="99.75" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E23" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
